--- a/project folders/project-three/datasets/soldpricerange/soldpricerange-ws.xlsx
+++ b/project folders/project-three/datasets/soldpricerange/soldpricerange-ws.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,8 +145,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,7 +204,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -220,6 +222,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -237,6 +240,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,7 +573,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K26" sqref="B26:K26"/>
+      <selection activeCell="C26" sqref="C26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1097,43 +1101,43 @@
     <row r="26" spans="1:12">
       <c r="B26">
         <f>SUM(C26:K26)</f>
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="C26">
-        <f>ROUND(C25,0)</f>
-        <v>2</v>
+        <f>ROUND(C25,1)</f>
+        <v>2.1</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:K26" si="5">ROUND(D25,0)</f>
-        <v>6</v>
+        <f t="shared" ref="D26:K26" si="5">ROUND(D25,1)</f>
+        <v>5.8</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/project folders/project-three/datasets/soldpricerange/soldpricerange-ws.xlsx
+++ b/project folders/project-three/datasets/soldpricerange/soldpricerange-ws.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Total</t>
   </si>
@@ -118,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,8 +144,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,8 +192,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -203,8 +216,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -223,6 +239,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -241,6 +259,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:K26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -972,43 +992,43 @@
       <c r="A21" s="8"/>
       <c r="B21">
         <f>SUM(C21:K21)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="C21">
-        <f>ROUND(C20,1)</f>
-        <v>6.4</v>
+        <f>ROUND(C20,2)</f>
+        <v>6.39</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:K21" si="3">ROUND(D20,1)</f>
-        <v>9.5</v>
+        <f t="shared" ref="D21:K21" si="3">ROUND(D20,2)</f>
+        <v>9.48</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>21.9</v>
+        <v>21.86</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>17.7</v>
+        <v>17.73</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>14.2</v>
+        <v>14.23</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>7.2</v>
+        <v>7.22</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -1101,42 +1121,305 @@
     <row r="26" spans="1:12">
       <c r="B26">
         <f>SUM(C26:K26)</f>
-        <v>99.9</v>
+        <v>99.990000000000009</v>
       </c>
       <c r="C26">
-        <f>ROUND(C25,1)</f>
+        <f>ROUND(C25,2)</f>
         <v>2.1</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:K26" si="5">ROUND(D25,1)</f>
-        <v>5.8</v>
+        <f t="shared" ref="D26:K26" si="5">ROUND(D25,2)</f>
+        <v>5.83</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>18.399999999999999</v>
+        <v>18.41</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>16.8</v>
+        <v>16.78</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>15.6</v>
+        <v>15.62</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>19.8</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
-        <v>9.3000000000000007</v>
+        <v>9.32</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>8.4</v>
+        <v>8.39</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1086</v>
+      </c>
+      <c r="C34" s="1">
+        <v>150</v>
+      </c>
+      <c r="D34" s="1">
+        <v>146</v>
+      </c>
+      <c r="E34" s="1">
+        <v>264</v>
+      </c>
+      <c r="F34" s="1">
+        <v>148</v>
+      </c>
+      <c r="G34" s="1">
+        <v>112</v>
+      </c>
+      <c r="H34" s="1">
+        <v>142</v>
+      </c>
+      <c r="I34" s="1">
+        <v>56</v>
+      </c>
+      <c r="J34" s="1">
+        <v>51</v>
+      </c>
+      <c r="K34" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35">
+        <f>SUM(C35:K35)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="C35">
+        <f>ROUND(((C34*100)/1086),1)</f>
+        <v>13.8</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:K35" si="6">ROUND(((D34*100)/1086),1)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>24.3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>13.6</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>10.3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>13.1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>4.7</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B39" s="1">
+        <v>485</v>
+      </c>
+      <c r="C39" s="1">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1">
+        <v>106</v>
+      </c>
+      <c r="F39" s="1">
+        <v>86</v>
+      </c>
+      <c r="G39" s="1">
+        <v>63</v>
+      </c>
+      <c r="H39" s="1">
+        <v>69</v>
+      </c>
+      <c r="I39" s="1">
+        <v>35</v>
+      </c>
+      <c r="J39" s="1">
+        <v>31</v>
+      </c>
+      <c r="K39" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40">
+        <f>SUM(C40:K40)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="C40">
+        <f>ROUND(((C39*100)/485),1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:K40" si="7">ROUND(((D39*100)/485),1)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>21.9</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>17.7</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>14.2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>7.2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>6.4</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="1">
+        <v>429</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1">
+        <v>79</v>
+      </c>
+      <c r="F44" s="1">
+        <v>72</v>
+      </c>
+      <c r="G44" s="1">
+        <v>67</v>
+      </c>
+      <c r="H44" s="1">
+        <v>85</v>
+      </c>
+      <c r="I44" s="1">
+        <v>40</v>
+      </c>
+      <c r="J44" s="1">
+        <v>36</v>
+      </c>
+      <c r="K44" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45">
+        <f>SUM(C45:K45)</f>
+        <v>99.9</v>
+      </c>
+      <c r="C45">
+        <f>ROUND(((C44*100)/429),1)</f>
+        <v>2.1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:K45" si="8">ROUND(((D44*100)/429),1)</f>
+        <v>5.8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="8"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="8"/>
+        <v>16.8</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="8"/>
+        <v>15.6</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="8"/>
+        <v>19.8</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="8"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>8.4</v>
+      </c>
+      <c r="K45">
+        <f>ROUND(((K44*100)/429),1)</f>
         <v>3.7</v>
       </c>
     </row>
